--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C3-Itgax.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C3-Itgax.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H2">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I2">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J2">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.007501333333333333</v>
+        <v>0.05429933333333333</v>
       </c>
       <c r="N2">
-        <v>0.022504</v>
+        <v>0.162898</v>
       </c>
       <c r="O2">
-        <v>0.0001081481021555516</v>
+        <v>0.0006106321520641768</v>
       </c>
       <c r="P2">
-        <v>0.0001081481021555516</v>
+        <v>0.0006111709387314433</v>
       </c>
       <c r="Q2">
-        <v>0.003928245730666666</v>
+        <v>0.07786220323733334</v>
       </c>
       <c r="R2">
-        <v>0.03535421157599999</v>
+        <v>0.700759829136</v>
       </c>
       <c r="S2">
-        <v>1.526713701059239E-07</v>
+        <v>2.371083862137679E-06</v>
       </c>
       <c r="T2">
-        <v>1.527734247094208E-07</v>
+        <v>2.375125232225373E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H3">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I3">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J3">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.093981</v>
+        <v>0.09398100000000002</v>
       </c>
       <c r="N3">
-        <v>0.281943</v>
+        <v>0.2819430000000001</v>
       </c>
       <c r="O3">
-        <v>0.001354941360026781</v>
+        <v>0.001056878911032857</v>
       </c>
       <c r="P3">
-        <v>0.001354941360026781</v>
+        <v>0.001057811440157395</v>
       </c>
       <c r="Q3">
-        <v>0.04921531221299999</v>
+        <v>0.134763491064</v>
       </c>
       <c r="R3">
-        <v>0.4429378099169999</v>
+        <v>1.212871419576</v>
       </c>
       <c r="S3">
-        <v>1.912754359303879E-06</v>
+        <v>4.103859454030644E-06</v>
       </c>
       <c r="T3">
-        <v>1.914032957822976E-06</v>
+        <v>4.110854236082201E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H4">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I4">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J4">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>44.63560033333334</v>
+        <v>43.24677266666666</v>
       </c>
       <c r="N4">
-        <v>133.906801</v>
+        <v>129.740318</v>
       </c>
       <c r="O4">
-        <v>0.643519658454991</v>
+        <v>0.4863387493390383</v>
       </c>
       <c r="P4">
-        <v>0.6435196584549912</v>
+        <v>0.486767866661199</v>
       </c>
       <c r="Q4">
-        <v>23.37445873335767</v>
+        <v>62.01345018473067</v>
       </c>
       <c r="R4">
-        <v>210.370128600219</v>
+        <v>558.1210516625761</v>
       </c>
       <c r="S4">
-        <v>0.0009084489324196276</v>
+        <v>0.001888452739004841</v>
       </c>
       <c r="T4">
-        <v>0.0009090561935946011</v>
+        <v>0.001891671493319401</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H5">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I5">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J5">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>24.62459066666667</v>
+        <v>0.2351745</v>
       </c>
       <c r="N5">
-        <v>73.873772</v>
+        <v>0.470349</v>
       </c>
       <c r="O5">
-        <v>0.3550172520828265</v>
+        <v>0.002644693815374347</v>
       </c>
       <c r="P5">
-        <v>0.3550172520828265</v>
+        <v>0.001764684893991306</v>
       </c>
       <c r="Q5">
-        <v>12.89523326818533</v>
+        <v>0.3372270632280001</v>
       </c>
       <c r="R5">
-        <v>116.057099413668</v>
+        <v>2.023362379368</v>
       </c>
       <c r="S5">
-        <v>0.0005011735685270457</v>
+        <v>1.026934268811706E-05</v>
       </c>
       <c r="T5">
-        <v>0.0005015085826805423</v>
+        <v>6.857897444118234E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>290.8976950000001</v>
+        <v>1.433944</v>
       </c>
       <c r="H6">
-        <v>872.6930850000001</v>
+        <v>4.301832</v>
       </c>
       <c r="I6">
-        <v>0.7841854820267643</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J6">
-        <v>0.78470967813754</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.007501333333333333</v>
+        <v>45.29292066666667</v>
       </c>
       <c r="N6">
-        <v>0.022504</v>
+        <v>135.878762</v>
       </c>
       <c r="O6">
-        <v>0.0001081481021555516</v>
+        <v>0.5093490457824903</v>
       </c>
       <c r="P6">
-        <v>0.0001081481021555516</v>
+        <v>0.5097984660659209</v>
       </c>
       <c r="Q6">
-        <v>2.182120576093334</v>
+        <v>64.94751183244267</v>
       </c>
       <c r="R6">
-        <v>19.63908518484</v>
+        <v>584.527606491984</v>
       </c>
       <c r="S6">
-        <v>8.480817161913097E-05</v>
+        <v>0.001977801690539151</v>
       </c>
       <c r="T6">
-        <v>8.486486243366869E-05</v>
+        <v>0.001981172734777261</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I7">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J7">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.093981</v>
+        <v>0.05429933333333333</v>
       </c>
       <c r="N7">
-        <v>0.281943</v>
+        <v>0.162898</v>
       </c>
       <c r="O7">
-        <v>0.001354941360026781</v>
+        <v>0.0006106321520641768</v>
       </c>
       <c r="P7">
-        <v>0.001354941360026781</v>
+        <v>0.0006111709387314433</v>
       </c>
       <c r="Q7">
-        <v>27.338856273795</v>
+        <v>15.79555090670334</v>
       </c>
       <c r="R7">
-        <v>246.049706464155</v>
+        <v>142.15995816033</v>
       </c>
       <c r="S7">
-        <v>0.001062525343530601</v>
+        <v>0.0004810109949534631</v>
       </c>
       <c r="T7">
-        <v>0.001063235598521856</v>
+        <v>0.0004818308493153852</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I8">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J8">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>44.63560033333334</v>
+        <v>0.09398100000000002</v>
       </c>
       <c r="N8">
-        <v>133.906801</v>
+        <v>0.2819430000000001</v>
       </c>
       <c r="O8">
-        <v>0.643519658454991</v>
+        <v>0.001056878911032857</v>
       </c>
       <c r="P8">
-        <v>0.6435196584549912</v>
+        <v>0.001057811440157395</v>
       </c>
       <c r="Q8">
-        <v>12984.3932519079</v>
+        <v>27.33885627379501</v>
       </c>
       <c r="R8">
-        <v>116859.5392671711</v>
+        <v>246.0497064641551</v>
       </c>
       <c r="S8">
-        <v>0.5046387735592259</v>
+        <v>0.0008325312953514733</v>
       </c>
       <c r="T8">
-        <v>0.5049761040613958</v>
+        <v>0.0008339502949608203</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I9">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J9">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>24.62459066666667</v>
+        <v>43.24677266666666</v>
       </c>
       <c r="N9">
-        <v>73.873772</v>
+        <v>129.740318</v>
       </c>
       <c r="O9">
-        <v>0.3550172520828265</v>
+        <v>0.4863387493390383</v>
       </c>
       <c r="P9">
-        <v>0.3550172520828265</v>
+        <v>0.486767866661199</v>
       </c>
       <c r="Q9">
-        <v>7163.236665251848</v>
+        <v>12580.38648492234</v>
       </c>
       <c r="R9">
-        <v>64469.12998726663</v>
+        <v>113223.478364301</v>
       </c>
       <c r="S9">
-        <v>0.2783993749523886</v>
+        <v>0.3831018149195122</v>
       </c>
       <c r="T9">
-        <v>0.2785854736151887</v>
+        <v>0.3837547889623456</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.68424166666667</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H10">
-        <v>116.052725</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I10">
-        <v>0.1042827812651277</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J10">
-        <v>0.1043524900644015</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.007501333333333333</v>
+        <v>0.2351745</v>
       </c>
       <c r="N10">
-        <v>0.022504</v>
+        <v>0.470349</v>
       </c>
       <c r="O10">
-        <v>0.0001081481021555516</v>
+        <v>0.002644693815374347</v>
       </c>
       <c r="P10">
-        <v>0.0001081481021555516</v>
+        <v>0.001764684893991306</v>
       </c>
       <c r="Q10">
-        <v>0.2901833914888889</v>
+        <v>68.41171997277752</v>
       </c>
       <c r="R10">
-        <v>2.6116505234</v>
+        <v>410.4703198366651</v>
       </c>
       <c r="S10">
-        <v>1.127798488132607E-05</v>
+        <v>0.002083294826812175</v>
       </c>
       <c r="T10">
-        <v>1.128552375567108E-05</v>
+        <v>0.001391230451844971</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.68424166666667</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H11">
-        <v>116.052725</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I11">
-        <v>0.1042827812651277</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J11">
-        <v>0.1043524900644015</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.093981</v>
+        <v>45.29292066666667</v>
       </c>
       <c r="N11">
-        <v>0.281943</v>
+        <v>135.878762</v>
       </c>
       <c r="O11">
-        <v>0.001354941360026781</v>
+        <v>0.5093490457824903</v>
       </c>
       <c r="P11">
-        <v>0.001354941360026781</v>
+        <v>0.5097984660659209</v>
       </c>
       <c r="Q11">
-        <v>3.635583716075</v>
+        <v>13175.6062217512</v>
       </c>
       <c r="R11">
-        <v>32.720253444675</v>
+        <v>118580.4559957608</v>
       </c>
       <c r="S11">
-        <v>0.0001412970534747474</v>
+        <v>0.4012276301898416</v>
       </c>
       <c r="T11">
-        <v>0.0001413915048100414</v>
+        <v>0.4019114985965641</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H12">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I12">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J12">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>44.63560033333334</v>
+        <v>0.05429933333333333</v>
       </c>
       <c r="N12">
-        <v>133.906801</v>
+        <v>0.162898</v>
       </c>
       <c r="O12">
-        <v>0.643519658454991</v>
+        <v>0.0006106321520641768</v>
       </c>
       <c r="P12">
-        <v>0.6435196584549912</v>
+        <v>0.0006111709387314433</v>
       </c>
       <c r="Q12">
-        <v>1726.694350231414</v>
+        <v>2.970573158326888</v>
       </c>
       <c r="R12">
-        <v>15540.24915208272</v>
+        <v>26.735158424942</v>
       </c>
       <c r="S12">
-        <v>0.06710801978247152</v>
+        <v>9.046081133279616E-05</v>
       </c>
       <c r="T12">
-        <v>0.06715287876517154</v>
+        <v>9.061499635461959E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H13">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I13">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J13">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>24.62459066666667</v>
+        <v>0.09398100000000002</v>
       </c>
       <c r="N13">
-        <v>73.873772</v>
+        <v>0.2819430000000001</v>
       </c>
       <c r="O13">
-        <v>0.3550172520828265</v>
+        <v>0.001056878911032857</v>
       </c>
       <c r="P13">
-        <v>0.3550172520828265</v>
+        <v>0.001057811440157395</v>
       </c>
       <c r="Q13">
-        <v>952.5836162920777</v>
+        <v>5.141452368833001</v>
       </c>
       <c r="R13">
-        <v>8573.252546628701</v>
+        <v>46.27307131949701</v>
       </c>
       <c r="S13">
-        <v>0.0370221864443001</v>
+        <v>0.0001565690955665666</v>
       </c>
       <c r="T13">
-        <v>0.03704693427066429</v>
+        <v>0.0001568359581898521</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7434085</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H14">
-        <v>1.486817</v>
+        <v>164.122079</v>
       </c>
       <c r="I14">
-        <v>0.002004038405719556</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J14">
-        <v>0.001336918682608127</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.007501333333333333</v>
+        <v>43.24677266666666</v>
       </c>
       <c r="N14">
-        <v>0.022504</v>
+        <v>129.740318</v>
       </c>
       <c r="O14">
-        <v>0.0001081481021555516</v>
+        <v>0.4863387493390383</v>
       </c>
       <c r="P14">
-        <v>0.0001081481021555516</v>
+        <v>0.486767866661199</v>
       </c>
       <c r="Q14">
-        <v>0.005576554961333333</v>
+        <v>2365.916746697902</v>
       </c>
       <c r="R14">
-        <v>0.033459329768</v>
+        <v>21293.25072028112</v>
       </c>
       <c r="S14">
-        <v>2.167329502254073E-07</v>
+        <v>0.07204762752676508</v>
       </c>
       <c r="T14">
-        <v>1.445852182603692E-07</v>
+        <v>0.07217042838228332</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7434085</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H15">
-        <v>1.486817</v>
+        <v>164.122079</v>
       </c>
       <c r="I15">
-        <v>0.002004038405719556</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J15">
-        <v>0.001336918682608127</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.093981</v>
+        <v>0.2351745</v>
       </c>
       <c r="N15">
-        <v>0.281943</v>
+        <v>0.470349</v>
       </c>
       <c r="O15">
-        <v>0.001354941360026781</v>
+        <v>0.002644693815374347</v>
       </c>
       <c r="P15">
-        <v>0.001354941360026781</v>
+        <v>0.001764684893991306</v>
       </c>
       <c r="Q15">
-        <v>0.0698662742385</v>
+        <v>12.8657759559285</v>
       </c>
       <c r="R15">
-        <v>0.419197645431</v>
+        <v>77.19465573557099</v>
       </c>
       <c r="S15">
-        <v>2.715354522991557E-06</v>
+        <v>0.0003917925832383087</v>
       </c>
       <c r="T15">
-        <v>1.811446418058269E-06</v>
+        <v>0.000261640246782643</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,25 +1399,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7434085</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H16">
-        <v>1.486817</v>
+        <v>164.122079</v>
       </c>
       <c r="I16">
-        <v>0.002004038405719556</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J16">
-        <v>0.001336918682608127</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>44.63560033333334</v>
+        <v>45.29292066666667</v>
       </c>
       <c r="N16">
-        <v>133.906801</v>
+        <v>135.878762</v>
       </c>
       <c r="O16">
-        <v>0.643519658454991</v>
+        <v>0.5093490457824903</v>
       </c>
       <c r="P16">
-        <v>0.6435196584549912</v>
+        <v>0.5097984660659209</v>
       </c>
       <c r="Q16">
-        <v>33.18248469040284</v>
+        <v>2477.856101265133</v>
       </c>
       <c r="R16">
-        <v>199.094908142417</v>
+        <v>22300.70491138619</v>
       </c>
       <c r="S16">
-        <v>0.001289638110379334</v>
+        <v>0.07545643932654737</v>
       </c>
       <c r="T16">
-        <v>0.0008603334540140788</v>
+        <v>0.07558505029711983</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H17">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I17">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J17">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>24.62459066666667</v>
+        <v>0.05429933333333333</v>
       </c>
       <c r="N17">
-        <v>73.873772</v>
+        <v>0.162898</v>
       </c>
       <c r="O17">
-        <v>0.3550172520828265</v>
+        <v>0.0006106321520641768</v>
       </c>
       <c r="P17">
-        <v>0.3550172520828265</v>
+        <v>0.0006111709387314433</v>
       </c>
       <c r="Q17">
-        <v>18.30613001062067</v>
+        <v>0.049370148452</v>
       </c>
       <c r="R17">
-        <v>109.836780063724</v>
+        <v>0.296220890712</v>
       </c>
       <c r="S17">
-        <v>0.0007114682078670053</v>
+        <v>1.503435009526554E-06</v>
       </c>
       <c r="T17">
-        <v>0.0004746291969577299</v>
+        <v>1.003998349491295E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>40.106198</v>
+        <v>0.909222</v>
       </c>
       <c r="H18">
-        <v>120.318594</v>
+        <v>1.818444</v>
       </c>
       <c r="I18">
-        <v>0.1081160103757125</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J18">
-        <v>0.1081882815327926</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.007501333333333333</v>
+        <v>0.09398100000000002</v>
       </c>
       <c r="N18">
-        <v>0.022504</v>
+        <v>0.2819430000000001</v>
       </c>
       <c r="O18">
-        <v>0.0001081481021555516</v>
+        <v>0.001056878911032857</v>
       </c>
       <c r="P18">
-        <v>0.0001081481021555516</v>
+        <v>0.001057811440157395</v>
       </c>
       <c r="Q18">
-        <v>0.3008499599306667</v>
+        <v>0.08544959278200003</v>
       </c>
       <c r="R18">
-        <v>2.707649639376</v>
+        <v>0.5126975566920001</v>
       </c>
       <c r="S18">
-        <v>1.169254133476323E-05</v>
+        <v>2.602137392054815E-06</v>
       </c>
       <c r="T18">
-        <v>1.170035732324204E-05</v>
+        <v>1.737715052674828E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>40.106198</v>
+        <v>0.909222</v>
       </c>
       <c r="H19">
-        <v>120.318594</v>
+        <v>1.818444</v>
       </c>
       <c r="I19">
-        <v>0.1081160103757125</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J19">
-        <v>0.1081882815327926</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.093981</v>
+        <v>43.24677266666666</v>
       </c>
       <c r="N19">
-        <v>0.281943</v>
+        <v>129.740318</v>
       </c>
       <c r="O19">
-        <v>0.001354941360026781</v>
+        <v>0.4863387493390383</v>
       </c>
       <c r="P19">
-        <v>0.001354941360026781</v>
+        <v>0.486767866661199</v>
       </c>
       <c r="Q19">
-        <v>3.769220594238</v>
+        <v>39.320917137532</v>
       </c>
       <c r="R19">
-        <v>33.922985348142</v>
+        <v>235.925502825192</v>
       </c>
       <c r="S19">
-        <v>0.0001464908541391374</v>
+        <v>0.001197412713650923</v>
       </c>
       <c r="T19">
-        <v>0.0001465887773190024</v>
+        <v>0.0007996357544873217</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>40.106198</v>
+        <v>0.909222</v>
       </c>
       <c r="H20">
-        <v>120.318594</v>
+        <v>1.818444</v>
       </c>
       <c r="I20">
-        <v>0.1081160103757125</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J20">
-        <v>0.1081882815327926</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>44.63560033333334</v>
+        <v>0.2351745</v>
       </c>
       <c r="N20">
-        <v>133.906801</v>
+        <v>0.470349</v>
       </c>
       <c r="O20">
-        <v>0.643519658454991</v>
+        <v>0.002644693815374347</v>
       </c>
       <c r="P20">
-        <v>0.6435196584549912</v>
+        <v>0.001764684893991306</v>
       </c>
       <c r="Q20">
-        <v>1790.164224817533</v>
+        <v>0.213825829239</v>
       </c>
       <c r="R20">
-        <v>16111.47802335779</v>
+        <v>0.855303316956</v>
       </c>
       <c r="S20">
-        <v>0.06957477807049475</v>
+        <v>6.511490195973601E-06</v>
       </c>
       <c r="T20">
-        <v>0.06962128598081514</v>
+        <v>2.898928284477901E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>40.106198</v>
+        <v>0.909222</v>
       </c>
       <c r="H21">
-        <v>120.318594</v>
+        <v>1.818444</v>
       </c>
       <c r="I21">
-        <v>0.1081160103757125</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J21">
-        <v>0.1081882815327926</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>24.62459066666667</v>
+        <v>45.29292066666667</v>
       </c>
       <c r="N21">
-        <v>73.873772</v>
+        <v>135.878762</v>
       </c>
       <c r="O21">
-        <v>0.3550172520828265</v>
+        <v>0.5093490457824903</v>
       </c>
       <c r="P21">
-        <v>0.3550172520828265</v>
+        <v>0.5097984660659209</v>
       </c>
       <c r="Q21">
-        <v>987.5987089462853</v>
+        <v>41.181319914388</v>
       </c>
       <c r="R21">
-        <v>8888.388380516568</v>
+        <v>247.087919486328</v>
       </c>
       <c r="S21">
-        <v>0.0383830489097438</v>
+        <v>0.0012540662736309</v>
       </c>
       <c r="T21">
-        <v>0.03840870641733525</v>
+        <v>0.0008374691695350495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>21.33956566666667</v>
+      </c>
+      <c r="H22">
+        <v>64.018697</v>
+      </c>
+      <c r="I22">
+        <v>0.05778573366465133</v>
+      </c>
+      <c r="J22">
+        <v>0.05783319729352075</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.05429933333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.162898</v>
+      </c>
+      <c r="O22">
+        <v>0.0006106321520641768</v>
+      </c>
+      <c r="P22">
+        <v>0.0006111709387314433</v>
+      </c>
+      <c r="Q22">
+        <v>1.158724189322889</v>
+      </c>
+      <c r="R22">
+        <v>10.428517703906</v>
+      </c>
+      <c r="S22">
+        <v>3.528582690625339E-05</v>
+      </c>
+      <c r="T22">
+        <v>3.534596947972184E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>21.33956566666667</v>
+      </c>
+      <c r="H23">
+        <v>64.018697</v>
+      </c>
+      <c r="I23">
+        <v>0.05778573366465133</v>
+      </c>
+      <c r="J23">
+        <v>0.05783319729352075</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.09398100000000002</v>
+      </c>
+      <c r="N23">
+        <v>0.2819430000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.001056878911032857</v>
+      </c>
+      <c r="P23">
+        <v>0.001057811440157395</v>
+      </c>
+      <c r="Q23">
+        <v>2.005513720919001</v>
+      </c>
+      <c r="R23">
+        <v>18.049623488271</v>
+      </c>
+      <c r="S23">
+        <v>6.107252326873138E-05</v>
+      </c>
+      <c r="T23">
+        <v>6.117661771796597E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>21.33956566666667</v>
+      </c>
+      <c r="H24">
+        <v>64.018697</v>
+      </c>
+      <c r="I24">
+        <v>0.05778573366465133</v>
+      </c>
+      <c r="J24">
+        <v>0.05783319729352075</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>43.24677266666666</v>
+      </c>
+      <c r="N24">
+        <v>129.740318</v>
+      </c>
+      <c r="O24">
+        <v>0.4863387493390383</v>
+      </c>
+      <c r="P24">
+        <v>0.486767866661199</v>
+      </c>
+      <c r="Q24">
+        <v>922.8673451917385</v>
+      </c>
+      <c r="R24">
+        <v>8305.806106725646</v>
+      </c>
+      <c r="S24">
+        <v>0.02810344144010529</v>
+      </c>
+      <c r="T24">
+        <v>0.02815134206876332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>21.33956566666667</v>
+      </c>
+      <c r="H25">
+        <v>64.018697</v>
+      </c>
+      <c r="I25">
+        <v>0.05778573366465133</v>
+      </c>
+      <c r="J25">
+        <v>0.05783319729352075</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.2351745</v>
+      </c>
+      <c r="N25">
+        <v>0.470349</v>
+      </c>
+      <c r="O25">
+        <v>0.002644693815374347</v>
+      </c>
+      <c r="P25">
+        <v>0.001764684893991306</v>
+      </c>
+      <c r="Q25">
+        <v>5.018521685875501</v>
+      </c>
+      <c r="R25">
+        <v>30.111130115253</v>
+      </c>
+      <c r="S25">
+        <v>0.0001528255724397725</v>
+      </c>
+      <c r="T25">
+        <v>0.0001020573696350949</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>21.33956566666667</v>
+      </c>
+      <c r="H26">
+        <v>64.018697</v>
+      </c>
+      <c r="I26">
+        <v>0.05778573366465133</v>
+      </c>
+      <c r="J26">
+        <v>0.05783319729352075</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>45.29292066666667</v>
+      </c>
+      <c r="N26">
+        <v>135.878762</v>
+      </c>
+      <c r="O26">
+        <v>0.5093490457824903</v>
+      </c>
+      <c r="P26">
+        <v>0.5097984660659209</v>
+      </c>
+      <c r="Q26">
+        <v>966.5312548014572</v>
+      </c>
+      <c r="R26">
+        <v>8698.781293213115</v>
+      </c>
+      <c r="S26">
+        <v>0.02943310830193128</v>
+      </c>
+      <c r="T26">
+        <v>0.02948327526792465</v>
       </c>
     </row>
   </sheetData>
